--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Status</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>[14 points minimum]</t>
+  </si>
+  <si>
+    <t>Aditi Ram</t>
   </si>
 </sst>
 </file>
@@ -454,11 +457,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,11 +477,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +493,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,19 +537,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,7 +2423,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2458,9 @@
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="32"/>
@@ -2492,7 +2497,7 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2501,7 +2506,7 @@
       </c>
       <c r="D9" s="24">
         <f>K39</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,15 +2673,15 @@
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G19" s="19"/>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ref="K19:K38" si="1">IF(J19=TRUE,D19,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2692,15 +2697,15 @@
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G20" s="19"/>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -2716,15 +2721,15 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G21" s="19"/>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -2740,15 +2745,15 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G22" s="19"/>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -2764,15 +2769,15 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G23" s="19"/>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -2788,15 +2793,15 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G24" s="19"/>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -2884,15 +2889,15 @@
       <c r="E28" s="8"/>
       <c r="F28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G28" s="19"/>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -2908,15 +2913,15 @@
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G29" s="19"/>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -2980,15 +2985,15 @@
       <c r="E32" s="8"/>
       <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G32" s="19"/>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -3138,7 +3143,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
